--- a/medicine/Mort/Cimetière_de_Bougival/Cimetière_de_Bougival.xlsx
+++ b/medicine/Mort/Cimetière_de_Bougival/Cimetière_de_Bougival.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bougival</t>
+          <t>Cimetière_de_Bougival</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bougival est le cimetière communal de Bougival dans les Yvelines. Il a la particularité d'être constitué de terrasses étagées à flanc de colline, offrant ainsi une vue sur la vallée. Ce petit cimetière de 1 450 places abrite les sépultures de plusieurs personnalités notoires, notamment Guillaume Depardieu (mort en 2008).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bougival</t>
+          <t>Cimetière_de_Bougival</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tombes les plus anciennes se trouvent dans le bas du cimetière. Plusieurs sépultures sont classées à l'inventaire : celle de l'épouse du conventionnel Boissy d'Anglas, Françoise, morte en 1850 à 94 ans, inhumée sous une simple petite dalle ; celle du Dr Duborgia (maire de Bougival) en forme de haute stèle surmontée de son buste par Capellaro ; celles de la famille Bouchet, de la famille Bousquet, de la famille Glaenzer, de la famille Mansion (avec médaillon), de la famille Rahard-Georgeaux, de la famille Rouland ; la chapelle de la famille Pointelet-Deseine[1], etc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tombes les plus anciennes se trouvent dans le bas du cimetière. Plusieurs sépultures sont classées à l'inventaire : celle de l'épouse du conventionnel Boissy d'Anglas, Françoise, morte en 1850 à 94 ans, inhumée sous une simple petite dalle ; celle du Dr Duborgia (maire de Bougival) en forme de haute stèle surmontée de son buste par Capellaro ; celles de la famille Bouchet, de la famille Bousquet, de la famille Glaenzer, de la famille Mansion (avec médaillon), de la famille Rahard-Georgeaux, de la famille Rouland ; la chapelle de la famille Pointelet-Deseine, etc.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bougival</t>
+          <t>Cimetière_de_Bougival</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paul Avenel (1823-1902), écrivain, poète, goguettier, dramaturge, chansonnier et journaliste
 Georges Avenel (1828-1876), historien, tombe inscrite à l'inventaire (médaillon)
@@ -551,8 +567,8 @@
 Georges Regnault (1898-1979), peintre
 Lucienne Dugard (née Gros 1901-1968), chanteuse, voix de Blanche-Neige dans la version française Un jour mon prince viendra
 Jean Nocher (né Gaston Charon 1908-1967), journaliste de radio et député (médaillon)
-Robert Rocca (1912-1994), chansonnier[2]
-Guillaume Depardieu (1971-2008), acteur[3]. Sa tombe décorée du Petit Prince se trouve en haut du cimetière en face du columbarium[4].</t>
+Robert Rocca (1912-1994), chansonnier
+Guillaume Depardieu (1971-2008), acteur. Sa tombe décorée du Petit Prince se trouve en haut du cimetière en face du columbarium.</t>
         </is>
       </c>
     </row>
